--- a/Proyecto 2/R/Proyecto 2 Stress Testing (E9).xlsx
+++ b/Proyecto 2/R/Proyecto 2 Stress Testing (E9).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="IMORA" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:JS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -55690,7 +55690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
